--- a/500all/speech_level/speeches_CHRG-114hhrg20236.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20236.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,30 +52,18 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair, and thank you both for being here today. I would also like to welcome Wendy Spencer, chief executive officer for the Corporation for National and Community Service, and Deborah Jeffrey, the inspector general. And I want to thank you both for joining us today.    We are here today to discuss the critical role that the Corporation for National and Community Service, or CNCS, has in encouraging volunteerism and civic engagement. Service is the rent that we pay for living on this Earth and it is also the foundation of our democracy, and its value to our society cannot be overstated.    Since its founding, CNCS has engaged millions of volunteers in national and community service. These volunteers have served as teachers and tutors and mentors and counselors working with disadvantaged students in high-need schools. In cases of natural disaster, volunteers have helped local communities prepare for, mitigate, respond, and recover from forest fires and floods and hurricanes and tornadoes. Volunteers have assisted our Nation's veterans in adjusting to civilian life, constructed and rebuilt homes for thousands of families, and help our Nation's seniors in maintaining the highest degree possible of independent living and much more. All of us ought to be engaged in national service. So thank you, CNCS, for being a leader on this issue.    You see, my upbringing taught me that we won't be able to celebrate community, nor can we build community if we are not inclusive, if we do not care for the least of these. So as we engage ourselves in trying to improve our community for the better, we must do so remembering that we are thy brother's and thy sister's keepers, and as such, inextricably tied to one another. But in order for the community to be engaged, the community must be involved. And that is exactly what CNCS does. CNCS and the community volunteers that they coordinate enable tens of thousands of nonprofit organizations, faith-based groups and schools and municipal agencies to solve tough problems and meet local needs. CNCS also serves and builds and makes an impact that change lives and communities.    Martin Luther King once said that the ultimate measure of a man is not where he stands in moments of comfort and convenience, but where he stands in times of challenge and controversy. So during the times of challenge, CNCS is there.    During the Flint crisis, CNCS deployed an AmeriCorps team to Flint to support State and local efforts to protect the public health of residents facing challenges from increased lead levels in the Flint water supply. And when tornadoes wreaked havoc in Oklahoma, CNCS deployed an AmeriCorps team to that region.    So needless to say, I could praise the instances of these volunteers helping our Nation's communities in times of need. But I will stop here and say that it is without a doubt that CNCS has improved the quality of life in my home State of North Carolina and communities around this great Nation.    After I was sworn into Congress, I made it a priority to join the Committee on Education and the Workforce and I am glad I am here. And I fought to do that intentionally because I understand the significance of community engagement. And as a member of the Committee, I feel responsible for ensuring that the Corporation has strong management, monitoring, and oversight as well as the resources necessary to effectively administer its programs and carry out its mission. And while there is always room for improvement, I strongly believe that CNCS is taking this responsibility serious.    So with regard to the recent incidences that occurred with the AmeriCorps program, CNCS discovered and resolved these issues with deliberate action. And I can't help but think that if this were anything other than services related to women's health, that the Corporation would not be called in front of us here today.    So as we proceed with today's hearing, I want to strongly encourage my colleagues on this committee to focus on the vital importance of service to our Nation. And while we must maintain vigorous oversight and enforcement, we must also remember how CNCS engages over a million volunteers, which is something that benefits local communities all across America on both sides of the aisle. So I look forward to hearing more about how we can improve and strengthen National Service programs that are so important to our Nation's success. Thank you, Madam Chair.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Spencer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Spencer. Thank you, Madam Chair, Dr. Adams, members of the committee. Thank you for inviting me to testify today. I welcome this opportunity to discuss our commitment to accountability and good stewardship of taxpayer dollars.    Today, 345,000 Senior Corps and AmeriCorps members are serving in 50,000 locations across the Nation. These dedicated Americans serve in tough conditions to meet pressing local needs like tutoring and mentoring at-risk youth, responding to disasters, supporting veterans and their families, and much, much more, all while recruiting millions of additional volunteers to serve alongside them and multiply their impact.    National Service invests in local solutions. It provides human capital support to increase the impact of nonprofits and faith-based organizations and other community organizations. Governor-appointed state service commissions decide where most of the AmeriCorps resources are invested. Local groups recruit, select, and supervise their members. Mayors and county leaders are also an important part of our partnerships at the local level.    Congress created our agency years ago to empower citizens, solve problems, and expand opportunity. Our agency is built on smart, commonsense principles, local control, competition, public-private partnership, and a focus on results. And it's working.    I share the committee's view that our agency has a responsibility to ensure Federal funds are well managed. That has been my priority from day one. We have built a culture of accountability and strong systems of monitoring and oversight. These systems are working.    Misconduct is very rare, but when it happens, we take strong action. Accountability is more than compliance. It also means achieving our mission. We are investing funds more effectively to drive community impact by using evidence, increasing competition, and measuring performance.    My written testimony details our comprehensive risk-based system to prevent and detect issues and enforce our rules. But let me list just a few to highlight.    We start before a grant is ever made by doing a financial scan and reviewing past performance. Every direct grant is monitored for fiscal and programmatic compliance. Every year our staff conducts a risk assessment of our entire portfolio of grants to inform our monitoring plan. Grantees identified as having risk receive site visits, desk reviews, and other types of audits. In fact, 3,200 have occurred in the last 5 years. If issues are discovered, we enforce our rules. That can mean requiring corrective action plans, placing funds on hold, reporting activities to the inspector general, or even suspending or terminating a grant.    In recent years we have strengthened our monitoring and oversight in many ways through expanded grantee and staff training, better use of financial data, increased control on fixed-amount grants, improvements to our grants management system, better communication with our grantees and members, and more.    Several initiatives currently underway, we have just recently hired a chief risk officer; the first in our agency's history and one of only a few positions like it in the Federal Government. This executive will lead an office that oversees all of our risk assessment programs, an integrated coordinated approach to better manage our resources and decision-making. We believe we are ahead of the curve in developing an enterprise risk management program to help us take a holistic view of risk.    We are updating our grant management IT system. A key component will be to enhance and validate our grantee risk model. This will enable us to move from compliance-focused monitoring to a more nimble and targeted risk-based approach.    Given the priority we place on accountability, we are deeply disappointed that a grantee authorized National Service participants to engage in prohibited activities. We immediately referred this matter to the inspector general for investigation. Once the results were known, we suspended the grantee from enrolling new members, directed them to hire an independent oversight monitor, and required them to take several other corrective actions. The inspector general stated our response was robust.    The IG concluded that the noncompliance was extremely limited in scope involving six of nearly 1,600 members serving under this particular grantee over three years. It is important to put that in perspective. That is six members out of more than 1 million National Service positions in the same period. In fact, since this subcommittee's hearing five years ago, there have been nearly 2 million AmeriCorps members and Senior Corps positions granted. Members have served 820 million hours. They have made an extraordinary contribution to our communities and our Nation.    I hope that my testimony today assures the committee of our commitment to accountability and our interest in doing more and making improvements where needed. We look forward to working with you to further strengthen the impact of National Service. And as I always ask members of Congress, I welcome your advice and your guidance. Thank you, Madam Chair.</t>
   </si>
   <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jeffrey. Chairwoman Foxx, Ranking Member Adams, and members of the subcommittee, thank you for inviting me to testify about the work of the Office of Inspector General to strengthen accountability at CNCS. I have had the privilege of serving as the IG for nearly 4 years.    Since early 2013, OIG has been recommending substantial improvements to CNCS's grants management, especially risk assessment and focused monitoring. We have identified new monitoring requirements and encourage CNCS to begin work on them early. Our work has shown that better internal controls and risk management are needed across the organization.    OIG conveys our recommendations in audit and investigation reports, in meetings with CNCS's leaders, and in briefings of the board of directors. We summarize them in our semiannual reports to Congress.    We have also identified other sources of help for CNCS. Following a troubling financial statement audit, we initiated discussions with OMB and CNCS to develop a plan for substantial upgrades to internal controls. We recommended an assessment of information technology and how it could better support the agency's operations and programs. CNCS responded by commissioning a report by The MITRE Corporation which gave rise to the present IT modernization plan.    To jumpstart progress, we introduced the chief operating officer to the Federal Enterprise Risk Management community and its resources. We have long advocated that CNCS hire a chief risk officer whom we recently welcomed.    At our suggestion, the House Committee on Government Reform requested a GAO study of grant monitoring at CNCS which is currently in progress. And to improve criminal history checking, we brought in the National Center for Missing and Exploited Children to share its expertise in assisting nonprofits.    CNCS has adopted a number of our individual recommendations. There is an increased focus on accountability and the leaders recently brought on board share that priority.    But much work remains to be done on basic risk management systems. High turnover in key accountability positions, insufficient resources, and lack of trained leadership have impaired efforts to improve accountability. CNCS lacks bench-strength and grant risk assessments and monitoring, creating appropriate internal controls, and identifying and reducing improper payments.    The agency has repeatedly promised progress, but it continues to struggle. Its grant monitoring depends heavily on risk assessments of unproven reliability. Our preliminary review of 40 seriously troubled grants found that half had not been monitored closely because they were rated as low or medium risk. CNCS was therefore blindsided by the serious problems that occurred.    Our audits and investigations also often find that the staff has missed red flags. That was the case with OIG's recent investigation of abortion-related prohibited activities. As you alluded to, Chairwoman Foxx, last month OIG reported that the National Association of Community Health Centers allowed a few AmeriCorps members to provide emotional support to women during abortions at three New York City clinics operated by a sub-grantee. The Federal statute authorizing the AmeriCorps program expressly forbids the use of AmeriCorps resources to provide abortion services or referrals for receipt of such services. Among the missed opportunities, from 2009, CNCS was on written notice that one NACHC's sub-grantees was performing abortions and having AmeriCorps members provide pre-abortion assistance. The agency did not ask the identity of the sub-grantee, did not determine whether the pre-abortion support activities were prohibited abortion services, and did not target NACHC or the sub-grantee for particular monitoring. The staff also did not record this key risk-related information in its online grants management system. Important institutional knowledge was therefore lost.    The agency made a considered decision in 2009 not to provide general guidance on the meaning of the abortion prohibitions. Its first interpretive guidance was imbedded in voluntary online training in 2014. There, CNCS stated for the first time that an AmeriCorps member is prohibited from accompanying a woman at a facility for an abortion; precisely what was taking place at the sub-grantee.    The measures that CNCS is now implementing could have been adopted long ago. These include OIG's recommendations, one, to analyze grantees' programmatic activity and clientele in order to identify those that present a heightened risk of a particular prohibited activity. There is a greater risk of abortion-related activities at a clinic that provides women's healthcare than at a program for Meals on Wheels to senior citizens. Second, to expand its repertoire of monitoring activities to include more frequent direct communications with AmeriCorps members, including surveys.    My staff and I see great potential to improve accountability at CNCS and we look forward to working with the Congress and agency leaders to that important objective.    Madam Chairwoman, this concludes my statement. I would be pleased to answer any questions that you or the other members might have.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Madam Chair. Thank the witnesses for being here today for your testimony.    I must say, Ms. Jeffrey, listening to your testimony, there are a lot of concerns that you raised and one of them was repeated staff did not, staff did not, staff did not, did not recognize, they didn't take action, they could have, they did not. And that makes me worry about what the culture and the leadership might be and that would be back into Ms. Spencer's box. But I want to come specifically back to you, Ms. Jeffrey, the inspector general, because you talked about some steps that have been taken and could be taken, you hope will be taken. But you also in your testimony highlight the structural challenges to better oversight at the corporation. Can you discuss why these structural challenges pose an issue in whether the corporation can properly oversee the program under its charge, structural?</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t xml:space="preserve">    Mr. Kline. It is like an indictment of a lot of people in an oversight role and a management role. I suppose we have to include ourselves in the oversight business. We will be taking a close and continuous look as we go forward because the problems, to listening to the IG, are extensive. I yield back, Madam Chair.    Chairwoman Foxx. Chairman yields back. Mr. Scott, I recognize you for 5 minutes.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you. Thank you, Madam Chair.    Ms. Spencer, most of this fanfare is over the abortion services. How many employees were involved in that?</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Madam Chairman.    You know, typically the indiscretions of a few will hurt the many who do good. And there is no question that is true. And many of us feel very strongly about abortion whether you are pro-choice or pro-life. I happen to be an obstetrician. As I spent 31 years doing that, delivering about 5,000 babies, I am strongly pro-life. And I think that the intent of those grants was very clear. I can certainly see why someone who has had an abortion, who has problems emotionally, would feel like you want to help them. I certainly understand that. I have done that. When people had them someone else and came to me, I did offer support for those patients and would continue to do so. But the grants can prohibit that. It's not to be used and I think we feel like if we allow that, you will get on a slippery slope and then people just decided what they want to do. And I think that's the problem I have seen with--I am on the Veteran's Affairs Committee and one of the problems I have with this place is the lack of accountability. People just do what they want to because they think they want to, not the intent of Congress, and then there are no consequences to it.    So what I want to dig into, first of all, were there just six people? What have been the consequences to that? Because if the consequences were in this, we just cut the grant off. And realizing that there are AmeriCorps members out there working hard every day, New York or wherever they may be working that are doing good work, if those consequences were there like that, those grantees would not do that. If there was some accountability like that.    And I think that you as a director, Ms. Spencer, are going to have to say, well, I would like to see these people go on and do all. Well, then there have been nothing for these people. If you think about it, we are having this discussion about not a lot. And what Mr. Scott was talking about, about the amount of money, I do not care about that. It is the principle that is involved. And I think, you know, a billion dollars is a lot of money. It is a thousand million dollars that you oversee every year. And so I want to know had there been more than six, Ms. Jeffrey? Were there more than that? Or how did you determine there were just six people involved?</t>
   </si>
   <si>
@@ -298,9 +280,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Madam Chairman. Thank you to the witnesses.    Ms. Spencer, I just want to drill down a little deeper in terms of just who the program was in New York that was the subject of the IG report. Again, it was not the National Association of Community Health Centers that operated that program. It was a sub-grantee of the National Association of Community Health Centers, isn't that correct?</t>
   </si>
   <si>
@@ -337,9 +316,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Madam Chairwoman. Thank you for being here.    And my question, actually, kind of focuses on veterans as well. And to Ms. Jeffrey, in your second fiscal year 2014 semiannual report to Congress you detail an investigation in which you determine a grantee was supposed to use grant funds to support veterans and military families, improperly disbursed about 140,000 of Federal funds and improperly certified another 61,000 education awards. The grantee acknowledged the findings and offered to refund the corporation the entire amount you recommended. Unconscionably, the corporation not only requested reimbursement for only about a third of the funds you recommended, but the corporation retroactively expanded the range of service activities of the grant in order to justify the move. Is there any justification for the corporation to retroactively approve over 12,000 National Service hours under this grant to non-veterans fundamentally changing the purpose of AmeriCorps' member service?</t>
   </si>
   <si>
@@ -403,9 +379,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you, Madam Chair, and thank you both for being with us today.    Ms. Spencer, one of the things that I think strikes me is that you all have really exhausted multiple resources, time, effort, everything in following up on this situation.</t>
   </si>
   <si>
@@ -451,9 +424,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you. I really appreciate it. Thank you both for being here today and I want to highlight some of the contributions the Corporation for National Community Service has made in my district as an example.    As my colleagues know, Colorado declared a state of emergency in the fall of 2013 after experiencing the most damaging floods in our State's history. Many homes, businesses, roads, bridges were destroyed. There was loss of life. Thanks to CNCS, though, volunteers were immediately deployed to Colorado to help in the aftermath of our floods. And in total, over 700 National Service members came to our State. Their work involved volunteer donations, management, staffing call centers, coordination of medical mobility rides, community relations activities, meal services. I got to visit a number of them as they were working to help feed some of those who had lost their homes, and mucking and gutting and debris removal as well.    I want to thank you, first of all, for CNCS's quick response. And I was hoping you could talk a little bit more, Ms. Spencer, about the important role CNCS has when a natural disaster occurs, like ours.</t>
   </si>
   <si>
@@ -467,9 +437,6 @@
   </si>
   <si>
     <t>412613</t>
-  </si>
-  <si>
-    <t>Mark DeSaulnier</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Madam Chairwoman, and no apology necessary.    I just really want to commend you both on the work you do. What you do is so important. I do not think often enough we give enough attention to programs, the volunteer programs that you oversee and also the challenge of doing them properly. And I am reminded sitting here today, whether it was de Tocqueville to David Brooks recently talking about the importance of community and the breakdown of community in the United States and how important these nonprofits, community groups are to the fabric of America. So thank you for what you do.    I want to talk little bit about--well, first I want to follow what Mr. Polis said. In California, of course, we had similar instances where your services and your grantee services have been very helpful in natural emergencies and now with the drought. With wildfires, I hear the same thing. So thank you for that.    But I want to talk about both proportionality that Mr. Courtney brought in, that all the good things you do and, you know, this might go in one of those categories where no good deed goes unpunished in terms of your proper oversight given the overall proportion of good work that most of your grantees are doing and your oversight, but also sort of the right investment.    So, Ms. Spencer, you mentioned in your comments under strengthening risk-based monitoring, ``In the spirit of continuous improvement, we are implementing additional steps to increase the effectiveness of our oversight and monitoring,''--and I want to sort of emphasize that word ``effectiveness''--then you go on to say, ``as part of our continued effort to incorporate best practices in our risk management.'' So there is, coming from the private sector--I know that industries, whether it's their insurance or just good management practices, you know, for instance in the construction industry, a certain proportion of your overall budget is going to be waste or theft. I was in the restaurant business. You did not want anybody stealing from you, but you did know that there was a point where there was diminishing returns on what you spent to make sure you bring it to zero.    So that is what wanted to ask you. As you look at your risk management and, sort of, industry best practices, given that you are dealing with nonprofits, given that you are dealing with nonprofits who do not have a lot of administrative overhead, and you are trying to encourage volunteerism, is there sort of an accepted--or do you--knowing that particularly in areas where you know that there is going to be a certain amount of public and political consequences if you don't get it to zero, what is appropriate?    And I think back at my time in the California legislature wherein the previous governor spent so much time on waste and abuse in the food stamp program, we actually found out that we were spending too much and it was affecting our participation rates. So somewhere in there, it is sort of the right porridge. Is there a best practice when you come to your profession/industry?</t>
@@ -943,11 +910,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -967,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -993,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1019,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1045,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1071,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1097,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1123,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1149,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1175,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1201,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1227,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1253,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1279,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1305,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1331,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1357,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1383,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1409,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1435,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1461,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1487,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1513,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1539,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1565,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1591,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1617,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1643,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1669,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1695,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1721,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1747,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1773,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1799,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1825,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1851,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1877,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1903,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>51</v>
-      </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1929,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1955,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1981,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2007,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2033,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2059,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2085,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2111,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2137,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2163,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2189,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2217,11 +2086,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2241,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2269,11 +2134,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2293,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2321,11 +2182,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2345,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2373,11 +2230,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2397,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2425,11 +2278,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2449,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2477,11 +2326,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2501,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2529,11 +2374,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2553,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2581,11 +2422,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2605,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2633,11 +2470,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2657,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2685,11 +2518,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2709,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2737,11 +2566,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2761,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2789,11 +2614,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2813,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2841,11 +2662,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2865,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2891,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2917,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2943,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2969,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2995,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3021,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>93</v>
-      </c>
-      <c r="G82" t="s">
-        <v>94</v>
-      </c>
-      <c r="H82" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3047,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3073,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3099,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3125,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3151,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3177,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3203,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3229,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3255,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3281,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3307,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3333,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>106</v>
-      </c>
-      <c r="G94" t="s">
-        <v>107</v>
-      </c>
-      <c r="H94" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3359,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3385,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3411,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3437,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3463,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3489,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3515,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3541,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3567,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3593,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3619,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3645,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3671,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" t="s">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3697,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3723,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3749,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
-      </c>
-      <c r="G110" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3775,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3801,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
-      </c>
-      <c r="G112" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3827,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>128</v>
-      </c>
-      <c r="G113" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3853,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3879,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
-      </c>
-      <c r="G115" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3905,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3931,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G117" t="s">
+        <v>120</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
         <v>129</v>
-      </c>
-      <c r="H117" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3957,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3983,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>128</v>
-      </c>
-      <c r="G119" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4009,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4035,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4061,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4087,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>128</v>
-      </c>
-      <c r="G123" t="s">
-        <v>129</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4113,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4139,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4165,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4191,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4217,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4243,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4269,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4295,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4321,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4347,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4373,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>150</v>
-      </c>
-      <c r="G134" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4399,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4425,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4451,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4477,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4503,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
+        <v>140</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
         <v>150</v>
-      </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
-      <c r="H139" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4529,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4555,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
-      </c>
-      <c r="G141" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4581,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4607,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>150</v>
-      </c>
-      <c r="G143" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4633,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4659,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4685,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4711,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4737,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4763,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4789,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4815,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4841,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4867,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4895,11 +4558,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4921,11 +4582,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20236.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20236.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,33 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Madam Chair, and thank you both for being here today. I would also like to welcome Wendy Spencer, chief executive officer for the Corporation for National and Community Service, and Deborah Jeffrey, the inspector general. And I want to thank you both for joining us today.    We are here today to discuss the critical role that the Corporation for National and Community Service, or CNCS, has in encouraging volunteerism and civic engagement. Service is the rent that we pay for living on this Earth and it is also the foundation of our democracy, and its value to our society cannot be overstated.    Since its founding, CNCS has engaged millions of volunteers in national and community service. These volunteers have served as teachers and tutors and mentors and counselors working with disadvantaged students in high-need schools. In cases of natural disaster, volunteers have helped local communities prepare for, mitigate, respond, and recover from forest fires and floods and hurricanes and tornadoes. Volunteers have assisted our Nation's veterans in adjusting to civilian life, constructed and rebuilt homes for thousands of families, and help our Nation's seniors in maintaining the highest degree possible of independent living and much more. All of us ought to be engaged in national service. So thank you, CNCS, for being a leader on this issue.    You see, my upbringing taught me that we won't be able to celebrate community, nor can we build community if we are not inclusive, if we do not care for the least of these. So as we engage ourselves in trying to improve our community for the better, we must do so remembering that we are thy brother's and thy sister's keepers, and as such, inextricably tied to one another. But in order for the community to be engaged, the community must be involved. And that is exactly what CNCS does. CNCS and the community volunteers that they coordinate enable tens of thousands of nonprofit organizations, faith-based groups and schools and municipal agencies to solve tough problems and meet local needs. CNCS also serves and builds and makes an impact that change lives and communities.    Martin Luther King once said that the ultimate measure of a man is not where he stands in moments of comfort and convenience, but where he stands in times of challenge and controversy. So during the times of challenge, CNCS is there.    During the Flint crisis, CNCS deployed an AmeriCorps team to Flint to support State and local efforts to protect the public health of residents facing challenges from increased lead levels in the Flint water supply. And when tornadoes wreaked havoc in Oklahoma, CNCS deployed an AmeriCorps team to that region.    So needless to say, I could praise the instances of these volunteers helping our Nation's communities in times of need. But I will stop here and say that it is without a doubt that CNCS has improved the quality of life in my home State of North Carolina and communities around this great Nation.    After I was sworn into Congress, I made it a priority to join the Committee on Education and the Workforce and I am glad I am here. And I fought to do that intentionally because I understand the significance of community engagement. And as a member of the Committee, I feel responsible for ensuring that the Corporation has strong management, monitoring, and oversight as well as the resources necessary to effectively administer its programs and carry out its mission. And while there is always room for improvement, I strongly believe that CNCS is taking this responsibility serious.    So with regard to the recent incidences that occurred with the AmeriCorps program, CNCS discovered and resolved these issues with deliberate action. And I can't help but think that if this were anything other than services related to women's health, that the Corporation would not be called in front of us here today.    So as we proceed with today's hearing, I want to strongly encourage my colleagues on this committee to focus on the vital importance of service to our Nation. And while we must maintain vigorous oversight and enforcement, we must also remember how CNCS engages over a million volunteers, which is something that benefits local communities all across America on both sides of the aisle. So I look forward to hearing more about how we can improve and strengthen National Service programs that are so important to our Nation's success. Thank you, Madam Chair.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Spencer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Spencer. Thank you, Madam Chair, Dr. Adams, members of the committee. Thank you for inviting me to testify today. I welcome this opportunity to discuss our commitment to accountability and good stewardship of taxpayer dollars.    Today, 345,000 Senior Corps and AmeriCorps members are serving in 50,000 locations across the Nation. These dedicated Americans serve in tough conditions to meet pressing local needs like tutoring and mentoring at-risk youth, responding to disasters, supporting veterans and their families, and much, much more, all while recruiting millions of additional volunteers to serve alongside them and multiply their impact.    National Service invests in local solutions. It provides human capital support to increase the impact of nonprofits and faith-based organizations and other community organizations. Governor-appointed state service commissions decide where most of the AmeriCorps resources are invested. Local groups recruit, select, and supervise their members. Mayors and county leaders are also an important part of our partnerships at the local level.    Congress created our agency years ago to empower citizens, solve problems, and expand opportunity. Our agency is built on smart, commonsense principles, local control, competition, public-private partnership, and a focus on results. And it's working.    I share the committee's view that our agency has a responsibility to ensure Federal funds are well managed. That has been my priority from day one. We have built a culture of accountability and strong systems of monitoring and oversight. These systems are working.    Misconduct is very rare, but when it happens, we take strong action. Accountability is more than compliance. It also means achieving our mission. We are investing funds more effectively to drive community impact by using evidence, increasing competition, and measuring performance.    My written testimony details our comprehensive risk-based system to prevent and detect issues and enforce our rules. But let me list just a few to highlight.    We start before a grant is ever made by doing a financial scan and reviewing past performance. Every direct grant is monitored for fiscal and programmatic compliance. Every year our staff conducts a risk assessment of our entire portfolio of grants to inform our monitoring plan. Grantees identified as having risk receive site visits, desk reviews, and other types of audits. In fact, 3,200 have occurred in the last 5 years. If issues are discovered, we enforce our rules. That can mean requiring corrective action plans, placing funds on hold, reporting activities to the inspector general, or even suspending or terminating a grant.    In recent years we have strengthened our monitoring and oversight in many ways through expanded grantee and staff training, better use of financial data, increased control on fixed-amount grants, improvements to our grants management system, better communication with our grantees and members, and more.    Several initiatives currently underway, we have just recently hired a chief risk officer; the first in our agency's history and one of only a few positions like it in the Federal Government. This executive will lead an office that oversees all of our risk assessment programs, an integrated coordinated approach to better manage our resources and decision-making. We believe we are ahead of the curve in developing an enterprise risk management program to help us take a holistic view of risk.    We are updating our grant management IT system. A key component will be to enhance and validate our grantee risk model. This will enable us to move from compliance-focused monitoring to a more nimble and targeted risk-based approach.    Given the priority we place on accountability, we are deeply disappointed that a grantee authorized National Service participants to engage in prohibited activities. We immediately referred this matter to the inspector general for investigation. Once the results were known, we suspended the grantee from enrolling new members, directed them to hire an independent oversight monitor, and required them to take several other corrective actions. The inspector general stated our response was robust.    The IG concluded that the noncompliance was extremely limited in scope involving six of nearly 1,600 members serving under this particular grantee over three years. It is important to put that in perspective. That is six members out of more than 1 million National Service positions in the same period. In fact, since this subcommittee's hearing five years ago, there have been nearly 2 million AmeriCorps members and Senior Corps positions granted. Members have served 820 million hours. They have made an extraordinary contribution to our communities and our Nation.    I hope that my testimony today assures the committee of our commitment to accountability and our interest in doing more and making improvements where needed. We look forward to working with you to further strengthen the impact of National Service. And as I always ask members of Congress, I welcome your advice and your guidance. Thank you, Madam Chair.</t>
   </si>
   <si>
+    <t>Jeffrey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jeffrey. Chairwoman Foxx, Ranking Member Adams, and members of the subcommittee, thank you for inviting me to testify about the work of the Office of Inspector General to strengthen accountability at CNCS. I have had the privilege of serving as the IG for nearly 4 years.    Since early 2013, OIG has been recommending substantial improvements to CNCS's grants management, especially risk assessment and focused monitoring. We have identified new monitoring requirements and encourage CNCS to begin work on them early. Our work has shown that better internal controls and risk management are needed across the organization.    OIG conveys our recommendations in audit and investigation reports, in meetings with CNCS's leaders, and in briefings of the board of directors. We summarize them in our semiannual reports to Congress.    We have also identified other sources of help for CNCS. Following a troubling financial statement audit, we initiated discussions with OMB and CNCS to develop a plan for substantial upgrades to internal controls. We recommended an assessment of information technology and how it could better support the agency's operations and programs. CNCS responded by commissioning a report by The MITRE Corporation which gave rise to the present IT modernization plan.    To jumpstart progress, we introduced the chief operating officer to the Federal Enterprise Risk Management community and its resources. We have long advocated that CNCS hire a chief risk officer whom we recently welcomed.    At our suggestion, the House Committee on Government Reform requested a GAO study of grant monitoring at CNCS which is currently in progress. And to improve criminal history checking, we brought in the National Center for Missing and Exploited Children to share its expertise in assisting nonprofits.    CNCS has adopted a number of our individual recommendations. There is an increased focus on accountability and the leaders recently brought on board share that priority.    But much work remains to be done on basic risk management systems. High turnover in key accountability positions, insufficient resources, and lack of trained leadership have impaired efforts to improve accountability. CNCS lacks bench-strength and grant risk assessments and monitoring, creating appropriate internal controls, and identifying and reducing improper payments.    The agency has repeatedly promised progress, but it continues to struggle. Its grant monitoring depends heavily on risk assessments of unproven reliability. Our preliminary review of 40 seriously troubled grants found that half had not been monitored closely because they were rated as low or medium risk. CNCS was therefore blindsided by the serious problems that occurred.    Our audits and investigations also often find that the staff has missed red flags. That was the case with OIG's recent investigation of abortion-related prohibited activities. As you alluded to, Chairwoman Foxx, last month OIG reported that the National Association of Community Health Centers allowed a few AmeriCorps members to provide emotional support to women during abortions at three New York City clinics operated by a sub-grantee. The Federal statute authorizing the AmeriCorps program expressly forbids the use of AmeriCorps resources to provide abortion services or referrals for receipt of such services. Among the missed opportunities, from 2009, CNCS was on written notice that one NACHC's sub-grantees was performing abortions and having AmeriCorps members provide pre-abortion assistance. The agency did not ask the identity of the sub-grantee, did not determine whether the pre-abortion support activities were prohibited abortion services, and did not target NACHC or the sub-grantee for particular monitoring. The staff also did not record this key risk-related information in its online grants management system. Important institutional knowledge was therefore lost.    The agency made a considered decision in 2009 not to provide general guidance on the meaning of the abortion prohibitions. Its first interpretive guidance was imbedded in voluntary online training in 2014. There, CNCS stated for the first time that an AmeriCorps member is prohibited from accompanying a woman at a facility for an abortion; precisely what was taking place at the sub-grantee.    The measures that CNCS is now implementing could have been adopted long ago. These include OIG's recommendations, one, to analyze grantees' programmatic activity and clientele in order to identify those that present a heightened risk of a particular prohibited activity. There is a greater risk of abortion-related activities at a clinic that provides women's healthcare than at a program for Meals on Wheels to senior citizens. Second, to expand its repertoire of monitoring activities to include more frequent direct communications with AmeriCorps members, including surveys.    My staff and I see great potential to improve accountability at CNCS and we look forward to working with the Congress and agency leaders to that important objective.    Madam Chairwoman, this concludes my statement. I would be pleased to answer any questions that you or the other members might have.</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kline. Thank you, Madam Chair. Thank the witnesses for being here today for your testimony.    I must say, Ms. Jeffrey, listening to your testimony, there are a lot of concerns that you raised and one of them was repeated staff did not, staff did not, staff did not, did not recognize, they didn't take action, they could have, they did not. And that makes me worry about what the culture and the leadership might be and that would be back into Ms. Spencer's box. But I want to come specifically back to you, Ms. Jeffrey, the inspector general, because you talked about some steps that have been taken and could be taken, you hope will be taken. But you also in your testimony highlight the structural challenges to better oversight at the corporation. Can you discuss why these structural challenges pose an issue in whether the corporation can properly oversee the program under its charge, structural?</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t xml:space="preserve">    Mr. Kline. It is like an indictment of a lot of people in an oversight role and a management role. I suppose we have to include ourselves in the oversight business. We will be taking a close and continuous look as we go forward because the problems, to listening to the IG, are extensive. I yield back, Madam Chair.    Chairwoman Foxx. Chairman yields back. Mr. Scott, I recognize you for 5 minutes.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you. Thank you, Madam Chair.    Ms. Spencer, most of this fanfare is over the abortion services. How many employees were involved in that?</t>
   </si>
   <si>
@@ -157,6 +178,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Madam Chairman.    You know, typically the indiscretions of a few will hurt the many who do good. And there is no question that is true. And many of us feel very strongly about abortion whether you are pro-choice or pro-life. I happen to be an obstetrician. As I spent 31 years doing that, delivering about 5,000 babies, I am strongly pro-life. And I think that the intent of those grants was very clear. I can certainly see why someone who has had an abortion, who has problems emotionally, would feel like you want to help them. I certainly understand that. I have done that. When people had them someone else and came to me, I did offer support for those patients and would continue to do so. But the grants can prohibit that. It's not to be used and I think we feel like if we allow that, you will get on a slippery slope and then people just decided what they want to do. And I think that's the problem I have seen with--I am on the Veteran's Affairs Committee and one of the problems I have with this place is the lack of accountability. People just do what they want to because they think they want to, not the intent of Congress, and then there are no consequences to it.    So what I want to dig into, first of all, were there just six people? What have been the consequences to that? Because if the consequences were in this, we just cut the grant off. And realizing that there are AmeriCorps members out there working hard every day, New York or wherever they may be working that are doing good work, if those consequences were there like that, those grantees would not do that. If there was some accountability like that.    And I think that you as a director, Ms. Spencer, are going to have to say, well, I would like to see these people go on and do all. Well, then there have been nothing for these people. If you think about it, we are having this discussion about not a lot. And what Mr. Scott was talking about, about the amount of money, I do not care about that. It is the principle that is involved. And I think, you know, a billion dollars is a lot of money. It is a thousand million dollars that you oversee every year. And so I want to know had there been more than six, Ms. Jeffrey? Were there more than that? Or how did you determine there were just six people involved?</t>
   </si>
   <si>
@@ -280,6 +307,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Madam Chairman. Thank you to the witnesses.    Ms. Spencer, I just want to drill down a little deeper in terms of just who the program was in New York that was the subject of the IG report. Again, it was not the National Association of Community Health Centers that operated that program. It was a sub-grantee of the National Association of Community Health Centers, isn't that correct?</t>
   </si>
   <si>
@@ -316,6 +349,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Madam Chairwoman. Thank you for being here.    And my question, actually, kind of focuses on veterans as well. And to Ms. Jeffrey, in your second fiscal year 2014 semiannual report to Congress you detail an investigation in which you determine a grantee was supposed to use grant funds to support veterans and military families, improperly disbursed about 140,000 of Federal funds and improperly certified another 61,000 education awards. The grantee acknowledged the findings and offered to refund the corporation the entire amount you recommended. Unconscionably, the corporation not only requested reimbursement for only about a third of the funds you recommended, but the corporation retroactively expanded the range of service activities of the grant in order to justify the move. Is there any justification for the corporation to retroactively approve over 12,000 National Service hours under this grant to non-veterans fundamentally changing the purpose of AmeriCorps' member service?</t>
   </si>
   <si>
@@ -379,6 +418,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you, Madam Chair, and thank you both for being with us today.    Ms. Spencer, one of the things that I think strikes me is that you all have really exhausted multiple resources, time, effort, everything in following up on this situation.</t>
   </si>
   <si>
@@ -424,6 +469,12 @@
     <t>412308</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you. I really appreciate it. Thank you both for being here today and I want to highlight some of the contributions the Corporation for National Community Service has made in my district as an example.    As my colleagues know, Colorado declared a state of emergency in the fall of 2013 after experiencing the most damaging floods in our State's history. Many homes, businesses, roads, bridges were destroyed. There was loss of life. Thanks to CNCS, though, volunteers were immediately deployed to Colorado to help in the aftermath of our floods. And in total, over 700 National Service members came to our State. Their work involved volunteer donations, management, staffing call centers, coordination of medical mobility rides, community relations activities, meal services. I got to visit a number of them as they were working to help feed some of those who had lost their homes, and mucking and gutting and debris removal as well.    I want to thank you, first of all, for CNCS's quick response. And I was hoping you could talk a little bit more, Ms. Spencer, about the important role CNCS has when a natural disaster occurs, like ours.</t>
   </si>
   <si>
@@ -437,6 +488,12 @@
   </si>
   <si>
     <t>412613</t>
+  </si>
+  <si>
+    <t>DeSaulnier</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Madam Chairwoman, and no apology necessary.    I just really want to commend you both on the work you do. What you do is so important. I do not think often enough we give enough attention to programs, the volunteer programs that you oversee and also the challenge of doing them properly. And I am reminded sitting here today, whether it was de Tocqueville to David Brooks recently talking about the importance of community and the breakdown of community in the United States and how important these nonprofits, community groups are to the fabric of America. So thank you for what you do.    I want to talk little bit about--well, first I want to follow what Mr. Polis said. In California, of course, we had similar instances where your services and your grantee services have been very helpful in natural emergencies and now with the drought. With wildfires, I hear the same thing. So thank you for that.    But I want to talk about both proportionality that Mr. Courtney brought in, that all the good things you do and, you know, this might go in one of those categories where no good deed goes unpunished in terms of your proper oversight given the overall proportion of good work that most of your grantees are doing and your oversight, but also sort of the right investment.    So, Ms. Spencer, you mentioned in your comments under strengthening risk-based monitoring, ``In the spirit of continuous improvement, we are implementing additional steps to increase the effectiveness of our oversight and monitoring,''--and I want to sort of emphasize that word ``effectiveness''--then you go on to say, ``as part of our continued effort to incorporate best practices in our risk management.'' So there is, coming from the private sector--I know that industries, whether it's their insurance or just good management practices, you know, for instance in the construction industry, a certain proportion of your overall budget is going to be waste or theft. I was in the restaurant business. You did not want anybody stealing from you, but you did know that there was a point where there was diminishing returns on what you spent to make sure you bring it to zero.    So that is what wanted to ask you. As you look at your risk management and, sort of, industry best practices, given that you are dealing with nonprofits, given that you are dealing with nonprofits who do not have a lot of administrative overhead, and you are trying to encourage volunteerism, is there sort of an accepted--or do you--knowing that particularly in areas where you know that there is going to be a certain amount of public and political consequences if you don't get it to zero, what is appropriate?    And I think back at my time in the California legislature wherein the previous governor spent so much time on waste and abuse in the food stamp program, we actually found out that we were spending too much and it was affecting our participation rates. So somewhere in there, it is sort of the right porridge. Is there a best practice when you come to your profession/industry?</t>
@@ -860,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +925,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,3701 +947,4292 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
       <c r="H43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G47" t="s">
+        <v>54</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>97</v>
+      </c>
       <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>97</v>
+      </c>
       <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>97</v>
+      </c>
       <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>97</v>
+      </c>
       <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G84" t="s">
+        <v>97</v>
+      </c>
       <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>97</v>
+      </c>
       <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G87" t="s">
+        <v>97</v>
+      </c>
       <c r="H87" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G88" t="s">
+        <v>111</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G90" t="s">
+        <v>111</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G92" t="s">
+        <v>111</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G94" t="s">
+        <v>111</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G96" t="s">
+        <v>111</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s">
+        <v>111</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s">
+        <v>111</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s">
+        <v>111</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>99</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G102" t="s">
+        <v>111</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G103" t="s">
+        <v>111</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G105" t="s">
+        <v>111</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>99</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G107" t="s">
+        <v>111</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G108" t="s">
+        <v>134</v>
+      </c>
       <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G110" t="s">
+        <v>134</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>120</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G112" t="s">
+        <v>134</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>120</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G113" t="s">
+        <v>134</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>120</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G115" t="s">
+        <v>134</v>
+      </c>
       <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G117" t="s">
+        <v>134</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G119" t="s">
+        <v>134</v>
+      </c>
       <c r="H119" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>120</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G121" t="s">
+        <v>134</v>
+      </c>
       <c r="H121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>120</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G123" t="s">
+        <v>134</v>
+      </c>
       <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
       <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>140</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G128" t="s">
+        <v>158</v>
+      </c>
       <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>140</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G130" t="s">
+        <v>158</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>140</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G132" t="s">
+        <v>158</v>
+      </c>
       <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G134" t="s">
+        <v>158</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G135" t="s">
+        <v>158</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>140</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s">
+        <v>158</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s">
+        <v>158</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s">
+        <v>158</v>
+      </c>
       <c r="H141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>140</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G143" t="s">
+        <v>158</v>
+      </c>
       <c r="H143" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>165</v>
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20236.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20236.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412607</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Adams</t>
@@ -917,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,7 +931,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,4289 +956,4572 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G78" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G80" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G84" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G86" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G90" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G92" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G96" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G99" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G101" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G103" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G105" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G108" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>17</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G110" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>17</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G112" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G115" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G117" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>21</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G121" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>21</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G123" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G124" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G126" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G128" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I128" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G130" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G132" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G134" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G135" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G137" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I137" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I139" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G141" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>17</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s">
-        <v>17</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>21</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>184</v>
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
